--- a/Data/Rawdata/CA_efficacy.xlsx
+++ b/Data/Rawdata/CA_efficacy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CA\Clinical_Data\Raw_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\project\Corestem project - CA Analysis\Corestem-project-CA-Analysis\Data\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="11340" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="SARA" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t>KYS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,13 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -453,8 +463,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,8 +492,11 @@
       <c r="H2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -497,83 +513,125 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>12.5</v>
+      </c>
+      <c r="H4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
+        <v>12.5</v>
+      </c>
+      <c r="C6">
+        <v>11.5</v>
+      </c>
+      <c r="D6">
+        <v>10.5</v>
+      </c>
+      <c r="E6">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>11.5</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>11.5</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.5</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>5.5</v>
+      </c>
+      <c r="G8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -585,6 +643,29 @@
       </c>
       <c r="D9">
         <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9.5</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>13.5</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>13.5</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
